--- a/산출물/6_ERD/테이블_정의서.xlsx
+++ b/산출물/6_ERD/테이블_정의서.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeong\Desktop\dev\000000_workspaces\user-manager\산출물\6_ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76860AB-8140-4D25-AFD1-5167EFD36645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70FDC0D-482D-438C-8284-528F811A46BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
     <sheet name="이력" sheetId="3" r:id="rId2"/>
     <sheet name="User" sheetId="4" r:id="rId3"/>
     <sheet name="DeletedUser" sheetId="5" r:id="rId4"/>
+    <sheet name="LoginHistory" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="64">
   <si>
     <t>2022. 09</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>latestLoginIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latestLoginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,14 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마지막 로그인 IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 로그인 일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bigint(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +254,46 @@
   </si>
   <si>
     <t>createdDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -838,11 +863,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -869,114 +933,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,6 +958,122 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1292,42 +1364,42 @@
   <sheetData>
     <row r="6" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="18" spans="4:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D18" s="1"/>
@@ -1340,28 +1412,28 @@
       <c r="F19" s="2"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.45">
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1387,43 +1459,43 @@
   <sheetData>
     <row r="2" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:8" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="30"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53">
         <v>44824</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="7"/>
@@ -1766,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44776AB6-3EBC-4F6E-9066-13FF8F7B9435}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1780,371 +1852,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="54" t="s">
-        <v>52</v>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="55">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="19">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="19">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="19">
+        <v>6</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="19">
+        <v>8</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="19">
+        <v>9</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="58" t="s">
+      <c r="E12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="19">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="19">
+        <v>11</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="19">
+        <v>12</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
-        <v>2</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="58"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="55">
-        <v>3</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="C15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="23">
+        <v>13</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="58"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
-        <v>4</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="55">
-        <v>5</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
-        <v>6</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="58"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
-        <v>7</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="58"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
-        <v>8</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="55">
-        <v>9</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="58"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
-        <v>10</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="58"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
-        <v>11</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="55">
-        <v>12</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="58"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="55">
-        <v>13</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="55">
-        <v>14</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="58"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="59">
-        <v>15</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="62"/>
+      <c r="F16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2161,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF3F4DC-CADE-4173-838A-38CC47EA5045}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2175,308 +2205,472 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="19">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="19">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="19">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="19">
+        <v>6</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="19">
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="19">
+        <v>8</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="19">
+        <v>9</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="23">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD5F11D-173E-425B-9F96-99F36A0798A2}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="4" width="19.58203125" customWidth="1"/>
+    <col min="5" max="8" width="13.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="19">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="C6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="63">
+        <v>4</v>
+      </c>
+      <c r="B7" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="55">
-        <v>1</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="56" t="s">
+      <c r="C7" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="66"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="63">
+        <v>5</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="66"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
-        <v>2</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="58"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="55">
-        <v>3</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="58"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="55">
-        <v>4</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="55">
-        <v>5</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="55">
-        <v>6</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="58"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
-        <v>7</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="58"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="55">
-        <v>8</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="55">
-        <v>9</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="58"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="55">
-        <v>10</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="58"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
-        <v>11</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="59">
-        <v>11</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="62"/>
+      <c r="E9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
